--- a/Actas_Cuatrimestral/Calif_Cuatrimestre.xlsx
+++ b/Actas_Cuatrimestral/Calif_Cuatrimestre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reina-buap/Documents/Github/fisica_electronica_2023/Actas_Cuatrimestral/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1A2441-94E8-2A46-9CB4-185D1549719F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F854A130-D1FC-174F-8783-E6C599950B10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{91BBDF17-1732-1E4C-A2F9-718F4CD489F1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24720" windowHeight="21140" xr2:uid="{91BBDF17-1732-1E4C-A2F9-718F4CD489F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,12 +187,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,7 +702,7 @@
   <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,7 +773,7 @@
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>7</v>
       </c>
       <c r="F8">
@@ -792,7 +793,7 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <v>0</v>
       </c>
       <c r="F9">
@@ -812,7 +813,7 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="5">
         <v>0</v>
       </c>
       <c r="F10">
@@ -832,7 +833,7 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11">
@@ -852,7 +853,7 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="5">
         <v>0</v>
       </c>
       <c r="F12">

--- a/Actas_Cuatrimestral/Calif_Cuatrimestre.xlsx
+++ b/Actas_Cuatrimestral/Calif_Cuatrimestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reina-buap/Documents/Github/fisica_electronica_2023/Actas_Cuatrimestral/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F854A130-D1FC-174F-8783-E6C599950B10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A125981-9125-8149-8364-2360E029C83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24720" windowHeight="21140" xr2:uid="{91BBDF17-1732-1E4C-A2F9-718F4CD489F1}"/>
   </bookViews>
@@ -209,197 +209,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>150813</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Correo-e">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tgtFrame="JOSE E. CANO SILVA"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2C03DD-0099-CD4E-90BA-EAB25365BD9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5880100" y="3505200"/>
-          <a:ext cx="355600" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>150812</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Correo-e">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3" tgtFrame="JOSE M. DELGADO CAMACHO"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3596D1-D4F9-F94D-AF1B-AE2F2BAAE506}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5880100" y="3733800"/>
-          <a:ext cx="355600" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>150813</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Correo-e">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4" tgtFrame="LUIS A. GARCIA DURAN"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D91636-38AC-084A-A482-FB6561511D5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5880100" y="3962400"/>
-          <a:ext cx="355600" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -702,11 +511,12 @@
   <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
@@ -779,6 +589,16 @@
       <c r="F8">
         <v>8</v>
       </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="5">
+        <f>AVERAGE(D8:G8)*0.7 + H8*0.3</f>
+        <v>6.5749999999999993</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -799,6 +619,15 @@
       <c r="F9">
         <v>0</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -819,6 +648,15 @@
       <c r="F10">
         <v>0</v>
       </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -831,13 +669,22 @@
         <v>201307341</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -859,6 +706,15 @@
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E13" s="1"/>
@@ -868,6 +724,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>